--- a/Ecopulpers/Charts/CO2 Change by Activities.xlsx
+++ b/Ecopulpers/Charts/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.096695903563983e-07</v>
+        <v>-3.696613293246998e-08</v>
       </c>
       <c r="D2">
-        <v>4.13233800315993e-05</v>
+        <v>-7.28558472928853e-06</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.096695903563983e-07</v>
+        <v>-3.696613293246998e-08</v>
       </c>
       <c r="G2">
-        <v>1.048347951559947e-06</v>
+        <v>-1.848306649954168e-07</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.076772170373943e-11</v>
+        <v>-5.598344119395193e-07</v>
       </c>
       <c r="D3">
-        <v>1.230708868149577e-10</v>
+        <v>-2.239337647758077e-06</v>
       </c>
       <c r="E3">
-        <v>3.76187969663988e-11</v>
+        <v>-6.844937341377033e-07</v>
       </c>
       <c r="F3">
-        <v>5.703082450736474e-11</v>
+        <v>-1.03770521620028e-06</v>
       </c>
       <c r="G3">
-        <v>1.538387195409996e-10</v>
+        <v>-2.799172059475552e-06</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.903102643482598e-14</v>
+        <v>-3.566288745131957e-08</v>
       </c>
       <c r="D4">
-        <v>3.961241057393039e-13</v>
+        <v>-1.426515498052783e-07</v>
       </c>
       <c r="E4">
-        <v>4.529425723376335e-10</v>
+        <v>-0.0001631125151888568</v>
       </c>
       <c r="F4">
-        <v>7.324629791582993e-11</v>
+        <v>0.0001638272178228206</v>
       </c>
       <c r="G4">
-        <v>4.951525300889159e-13</v>
+        <v>-1.783144372574652e-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0007116113947631675</v>
+        <v>-7.321500561374705e-06</v>
       </c>
       <c r="D5">
-        <v>1.195229400341447e-06</v>
+        <v>-1.229726365181705e-08</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.988073500853616e-07</v>
+        <v>-3.074315912954262e-09</v>
       </c>
       <c r="G5">
-        <v>1.494036750315786e-06</v>
+        <v>-1.537157956477131e-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.388293230375481e-10</v>
+        <v>-6.348906063380344e-08</v>
       </c>
       <c r="D6">
-        <v>2.736160453764569e-08</v>
+        <v>-1.251293797110975e-05</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.388293230375481e-10</v>
+        <v>-6.348906063380344e-08</v>
       </c>
       <c r="G6">
-        <v>6.941466290655285e-10</v>
+        <v>-3.174453031551394e-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.812995448213783e-10</v>
+        <v>-6.582151906853184e-10</v>
       </c>
       <c r="D7">
-        <v>7.251981792855133e-10</v>
+        <v>-2.632860762741274e-09</v>
       </c>
       <c r="E7">
-        <v>8.292156508105109e-07</v>
+        <v>-3.010500392974791e-06</v>
       </c>
       <c r="F7">
-        <v>1.340948188044422e-07</v>
+        <v>-4.868366048071948e-07</v>
       </c>
       <c r="G7">
-        <v>9.064977657402551e-10</v>
+        <v>-3.29107596730438e-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>3.105612540821312e-05</v>
+        <v>-1.312996528213262e-05</v>
       </c>
       <c r="C8">
-        <v>4.577175775288822e-06</v>
+        <v>-1.959103190785072e-08</v>
       </c>
       <c r="D8">
-        <v>0.0008244156683758774</v>
+        <v>-1.823322918426129e-06</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.577175775288822e-06</v>
+        <v>-1.959103190785072e-08</v>
       </c>
       <c r="G8">
-        <v>2.288587887733229e-05</v>
+        <v>-9.795515865107518e-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.26078331885715e-07</v>
+        <v>8.891327452076325e-09</v>
       </c>
       <c r="D9">
-        <v>0.0001086372078589193</v>
+        <v>7.661340191589261e-06</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.26078331885715e-07</v>
+        <v>8.891327452076325e-09</v>
       </c>
       <c r="G9">
-        <v>6.303916597616421e-07</v>
+        <v>4.445663748242623e-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.750321049267313e-07</v>
+        <v>-3.209649360513822e-06</v>
       </c>
       <c r="D10">
-        <v>3.317615431797094e-05</v>
+        <v>-1.285429243580438e-05</v>
       </c>
       <c r="E10">
-        <v>1.409220544701384e-07</v>
+        <v>-3.077424979380794e-05</v>
       </c>
       <c r="F10">
-        <v>5.082476377538114e-07</v>
+        <v>-2.467391871618929e-05</v>
       </c>
       <c r="G10">
-        <v>1.875160521080943e-06</v>
+        <v>-1.604824680612182e-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.835413834949122e-08</v>
+        <v>5.974893824145511e-08</v>
       </c>
       <c r="D11">
-        <v>1.464934939576779e-05</v>
+        <v>-5.110986421641428e-06</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.222749448170362e-06</v>
+        <v>-1.401933673150779e-06</v>
       </c>
       <c r="G11">
-        <v>0.0001673637525527738</v>
+        <v>-0.0001112013305828441</v>
       </c>
     </row>
   </sheetData>

--- a/Ecopulpers/Charts/CO2 Change by Activities.xlsx
+++ b/Ecopulpers/Charts/CO2 Change by Activities.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.696613293246998e-08</v>
+        <v>-3.584038161252856e-06</v>
       </c>
       <c r="D2">
-        <v>-7.28558472928853e-06</v>
+        <v>-0.0007063712514252529</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-3.696613293246998e-08</v>
+        <v>-3.584038161252856e-06</v>
       </c>
       <c r="G2">
-        <v>-1.848306649954168e-07</v>
+        <v>-1.79201908063753e-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,19 +476,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-5.598344119395193e-07</v>
+        <v>-5.427818574088583e-05</v>
       </c>
       <c r="D3">
-        <v>-2.239337647758077e-06</v>
+        <v>-0.0002171127429635433</v>
       </c>
       <c r="E3">
-        <v>-6.844937341377033e-07</v>
+        <v>-6.636440568952295e-05</v>
       </c>
       <c r="F3">
-        <v>-1.03770521620028e-06</v>
+        <v>-0.0001006096718163541</v>
       </c>
       <c r="G3">
-        <v>-2.799172059475552e-06</v>
+        <v>-0.0002713909287042071</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -499,19 +499,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-3.566288745131957e-08</v>
+        <v>-3.45765962791577e-06</v>
       </c>
       <c r="D4">
-        <v>-1.426515498052783e-07</v>
+        <v>-1.383063851166308e-05</v>
       </c>
       <c r="E4">
-        <v>-0.0001631125151888568</v>
+        <v>-0.01581441097099656</v>
       </c>
       <c r="F4">
-        <v>0.0001638272178228206</v>
+        <v>0.0158762674836419</v>
       </c>
       <c r="G4">
-        <v>-1.783144372574652e-07</v>
+        <v>-1.728829813957972e-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.321500561374705e-06</v>
+        <v>-0.0007098437176864536</v>
       </c>
       <c r="D5">
-        <v>-1.229726365181705e-08</v>
+        <v>-1.192260392191002e-06</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.074315912954262e-09</v>
+        <v>-2.980650980477506e-07</v>
       </c>
       <c r="G5">
-        <v>-1.537157956477131e-08</v>
+        <v>-1.490325489683642e-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-6.348906063380344e-08</v>
+        <v>-6.155518350703382e-06</v>
       </c>
       <c r="D6">
-        <v>-1.251293797110975e-05</v>
+        <v>-0.001213179381647222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-6.348906063380344e-08</v>
+        <v>-6.155518350703382e-06</v>
       </c>
       <c r="G6">
-        <v>-3.174453031551394e-07</v>
+        <v>-3.077759175351691e-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-6.582151906853184e-10</v>
+        <v>-6.381647378594923e-08</v>
       </c>
       <c r="D7">
-        <v>-2.632860762741274e-09</v>
+        <v>-2.552658951437969e-07</v>
       </c>
       <c r="E7">
-        <v>-3.010500392974791e-06</v>
+        <v>-0.0002918794942274872</v>
       </c>
       <c r="F7">
-        <v>-4.868366048071948e-07</v>
+        <v>-4.720066380059507e-05</v>
       </c>
       <c r="G7">
-        <v>-3.29107596730438e-09</v>
+        <v>-3.190823689158684e-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.312996528213262e-05</v>
+        <v>-0.001273030135507724</v>
       </c>
       <c r="C8">
-        <v>-1.959103190785072e-08</v>
+        <v>-1.899458726306591e-06</v>
       </c>
       <c r="D8">
-        <v>-1.823322918426129e-06</v>
+        <v>-0.000176781043705887</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.959103190785072e-08</v>
+        <v>-1.899458726306591e-06</v>
       </c>
       <c r="G8">
-        <v>-9.795515865107518e-08</v>
+        <v>-9.497293632421133e-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.891327452076325e-09</v>
+        <v>8.617006481692613e-07</v>
       </c>
       <c r="D9">
-        <v>7.661340191589261e-06</v>
+        <v>0.0007424967554925388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.891327452076325e-09</v>
+        <v>8.617006481692613e-07</v>
       </c>
       <c r="G9">
-        <v>4.445663748242623e-08</v>
+        <v>4.308503241290396e-06</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-3.209649360513822e-06</v>
+        <v>-0.0003111883291566642</v>
       </c>
       <c r="D10">
-        <v>-1.285429243580438e-05</v>
+        <v>-0.001246275159303423</v>
       </c>
       <c r="E10">
-        <v>-3.077424979380794e-05</v>
+        <v>-0.002983686692886067</v>
       </c>
       <c r="F10">
-        <v>-2.467391871618929e-05</v>
+        <v>-0.00239223506477515</v>
       </c>
       <c r="G10">
-        <v>-1.604824680612182e-05</v>
+        <v>-0.001555941645790426</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.974893824145511e-08</v>
+        <v>5.793568329082177e-06</v>
       </c>
       <c r="D11">
-        <v>-5.110986421641428e-06</v>
+        <v>-0.0004955040387812915</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.401933673150779e-06</v>
+        <v>-0.0001359001812488714</v>
       </c>
       <c r="G11">
-        <v>-0.0001112013305828441</v>
+        <v>-0.01078138956654584</v>
       </c>
     </row>
   </sheetData>
